--- a/data/pca/factorExposure/factorExposure_2018-11-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-11-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.07155207089026273</v>
+        <v>0.04749032272869305</v>
       </c>
       <c r="C2">
-        <v>0.05458711884160511</v>
+        <v>0.01149408062900037</v>
       </c>
       <c r="D2">
-        <v>-0.07326119367786384</v>
+        <v>0.02795478118809764</v>
       </c>
       <c r="E2">
-        <v>-0.01255226294224824</v>
+        <v>0.02075361671735724</v>
       </c>
       <c r="F2">
-        <v>0.1311862031834178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03248729168398844</v>
+      </c>
+      <c r="G2">
+        <v>-0.1084130190051425</v>
+      </c>
+      <c r="H2">
+        <v>-0.07065808708212633</v>
+      </c>
+      <c r="I2">
+        <v>0.1221052466636136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2002666395975341</v>
+        <v>0.1290877029809248</v>
       </c>
       <c r="C3">
-        <v>-2.998719622427434e-05</v>
+        <v>-0.02359441337574337</v>
       </c>
       <c r="D3">
-        <v>-0.1314788839921516</v>
+        <v>0.05282330467421183</v>
       </c>
       <c r="E3">
-        <v>-0.04158583128073082</v>
+        <v>0.01737598248345587</v>
       </c>
       <c r="F3">
-        <v>0.3602373988737753</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.01000654303603159</v>
+      </c>
+      <c r="G3">
+        <v>-0.3549058807694956</v>
+      </c>
+      <c r="H3">
+        <v>-0.2263897289368926</v>
+      </c>
+      <c r="I3">
+        <v>0.2687830942761635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.06488228262497249</v>
+        <v>0.05632845933670101</v>
       </c>
       <c r="C4">
-        <v>0.02807034221208528</v>
+        <v>0.004680896793892743</v>
       </c>
       <c r="D4">
-        <v>-0.05440638386623068</v>
+        <v>0.04590380139764276</v>
       </c>
       <c r="E4">
-        <v>-0.05708230018837027</v>
+        <v>-0.01161955660484935</v>
       </c>
       <c r="F4">
-        <v>0.06483076863364978</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.05342289042795643</v>
+      </c>
+      <c r="G4">
+        <v>-0.06296348683901121</v>
+      </c>
+      <c r="H4">
+        <v>-0.0255176124076383</v>
+      </c>
+      <c r="I4">
+        <v>0.06685402290824533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.006272350408375212</v>
+        <v>0.03210549552345662</v>
       </c>
       <c r="C6">
-        <v>0.002314203215584637</v>
+        <v>0.003478662983437958</v>
       </c>
       <c r="D6">
-        <v>-0.001612666523231104</v>
+        <v>0.02261124427192229</v>
       </c>
       <c r="E6">
-        <v>0.004513783503927576</v>
+        <v>-0.001389774749670485</v>
       </c>
       <c r="F6">
-        <v>-0.001071683719550095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02139800371279205</v>
+      </c>
+      <c r="G6">
+        <v>-0.01311816158133392</v>
+      </c>
+      <c r="H6">
+        <v>0.0374109038715917</v>
+      </c>
+      <c r="I6">
+        <v>-0.002519625323614832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.03149943791174555</v>
+        <v>0.02823705848804702</v>
       </c>
       <c r="C7">
-        <v>0.02243641773939385</v>
+        <v>0.00308229873515852</v>
       </c>
       <c r="D7">
-        <v>-0.04546564897078246</v>
+        <v>0.0137171843539888</v>
       </c>
       <c r="E7">
-        <v>-0.0123332832822795</v>
+        <v>-0.03322857209528236</v>
       </c>
       <c r="F7">
-        <v>0.07011716443999307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02666098852109311</v>
+      </c>
+      <c r="G7">
+        <v>-0.05255179734600682</v>
+      </c>
+      <c r="H7">
+        <v>-0.04888457253194277</v>
+      </c>
+      <c r="I7">
+        <v>0.0263223088488652</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.0378282762518501</v>
+        <v>0.01230934433712231</v>
       </c>
       <c r="C8">
-        <v>-2.027373014621609e-05</v>
+        <v>-0.004656755298783028</v>
       </c>
       <c r="D8">
-        <v>-0.04377112260137434</v>
+        <v>0.04173571845719643</v>
       </c>
       <c r="E8">
-        <v>-0.04719877147703713</v>
+        <v>-0.007839301211324335</v>
       </c>
       <c r="F8">
-        <v>0.08707791874461174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01685349519061901</v>
+      </c>
+      <c r="G8">
+        <v>-0.06972352262673095</v>
+      </c>
+      <c r="H8">
+        <v>-0.05439686889555158</v>
+      </c>
+      <c r="I8">
+        <v>0.06011768940943019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.05304113197260049</v>
+        <v>0.04469206675089026</v>
       </c>
       <c r="C9">
-        <v>0.02715128519194134</v>
+        <v>-0.0003222848614748117</v>
       </c>
       <c r="D9">
-        <v>-0.03822281697605157</v>
+        <v>0.03214498510390928</v>
       </c>
       <c r="E9">
-        <v>-0.06323155106373689</v>
+        <v>-0.0130428309052479</v>
       </c>
       <c r="F9">
-        <v>0.06514719495792394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.0367146502668279</v>
+      </c>
+      <c r="G9">
+        <v>-0.07900833184773678</v>
+      </c>
+      <c r="H9">
+        <v>-0.02899392086607365</v>
+      </c>
+      <c r="I9">
+        <v>0.05583623394361301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.03485365176203447</v>
+        <v>0.0574796524808623</v>
       </c>
       <c r="C10">
-        <v>0.08019544935729281</v>
+        <v>-0.001518505608884131</v>
       </c>
       <c r="D10">
-        <v>0.1070793063471507</v>
+        <v>-0.1650682797972446</v>
       </c>
       <c r="E10">
-        <v>0.09882840855356173</v>
+        <v>0.007320584407497855</v>
       </c>
       <c r="F10">
-        <v>0.0718985085292185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04026792418202155</v>
+      </c>
+      <c r="G10">
+        <v>-0.04586203787169829</v>
+      </c>
+      <c r="H10">
+        <v>-0.02908662198500213</v>
+      </c>
+      <c r="I10">
+        <v>0.04133888353689755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.04503686634656468</v>
+        <v>0.03375492804181553</v>
       </c>
       <c r="C11">
-        <v>0.005890692778613559</v>
+        <v>-0.01091070454997346</v>
       </c>
       <c r="D11">
-        <v>-0.03148409415708219</v>
+        <v>0.03258459567958075</v>
       </c>
       <c r="E11">
-        <v>-0.0145075189157073</v>
+        <v>0.008123366072977945</v>
       </c>
       <c r="F11">
-        <v>0.04213121361120606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01027981054043137</v>
+      </c>
+      <c r="G11">
+        <v>-0.04617625181642609</v>
+      </c>
+      <c r="H11">
+        <v>-0.009355124754796799</v>
+      </c>
+      <c r="I11">
+        <v>0.03504380839213413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04452196274148632</v>
+        <v>0.03832842007921951</v>
       </c>
       <c r="C12">
-        <v>0.0076958874564549</v>
+        <v>-0.007923688637648344</v>
       </c>
       <c r="D12">
-        <v>-0.02822420508084188</v>
+        <v>0.03328200583225111</v>
       </c>
       <c r="E12">
-        <v>-0.03323026810241465</v>
+        <v>-0.003169152267038905</v>
       </c>
       <c r="F12">
-        <v>0.02576863275622935</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01850641852616517</v>
+      </c>
+      <c r="G12">
+        <v>-0.016148364307016</v>
+      </c>
+      <c r="H12">
+        <v>-0.005315975731109996</v>
+      </c>
+      <c r="I12">
+        <v>0.01929689358857129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.04786510504723104</v>
+        <v>0.03588516483629199</v>
       </c>
       <c r="C13">
-        <v>0.02089517863983193</v>
+        <v>0.013334972407926</v>
       </c>
       <c r="D13">
-        <v>-0.05383705833681943</v>
+        <v>0.01986714905613894</v>
       </c>
       <c r="E13">
-        <v>0.01001596538824094</v>
+        <v>0.02027769423261602</v>
       </c>
       <c r="F13">
-        <v>0.1118985727695502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.01316268467065656</v>
+      </c>
+      <c r="G13">
+        <v>-0.09087052915298571</v>
+      </c>
+      <c r="H13">
+        <v>-0.03473259268564942</v>
+      </c>
+      <c r="I13">
+        <v>0.08200997915265591</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.02419072482139674</v>
+        <v>0.02016507306831907</v>
       </c>
       <c r="C14">
-        <v>0.01807852263121547</v>
+        <v>0.0005543080355453068</v>
       </c>
       <c r="D14">
-        <v>-0.04147188880817924</v>
+        <v>0.01520784810777223</v>
       </c>
       <c r="E14">
-        <v>-0.02546178000358124</v>
+        <v>-0.004604244966990968</v>
       </c>
       <c r="F14">
-        <v>0.04233763725399871</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02683999037581072</v>
+      </c>
+      <c r="G14">
+        <v>-0.04168649378564607</v>
+      </c>
+      <c r="H14">
+        <v>-0.06595501287548992</v>
+      </c>
+      <c r="I14">
+        <v>0.03111113947582144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.03698017294394364</v>
+        <v>0.03185085464286267</v>
       </c>
       <c r="C16">
-        <v>0.006011197570611198</v>
+        <v>-0.01037752983738196</v>
       </c>
       <c r="D16">
-        <v>-0.02720433943489595</v>
+        <v>0.0308760252312014</v>
       </c>
       <c r="E16">
-        <v>-0.01490918386197626</v>
+        <v>0.002723828667316916</v>
       </c>
       <c r="F16">
-        <v>0.03111200858840003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01659508948668022</v>
+      </c>
+      <c r="G16">
+        <v>-0.03460467388662609</v>
+      </c>
+      <c r="H16">
+        <v>-0.008165341417765516</v>
+      </c>
+      <c r="I16">
+        <v>0.02856496800583255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05532313893074916</v>
+        <v>0.04100793072521751</v>
       </c>
       <c r="C19">
-        <v>-0.0007370904840911583</v>
+        <v>0.0001770762402622458</v>
       </c>
       <c r="D19">
-        <v>-0.04487362118968808</v>
+        <v>0.03721716531351994</v>
       </c>
       <c r="E19">
-        <v>-0.01046411696698539</v>
+        <v>0.008580377206865291</v>
       </c>
       <c r="F19">
-        <v>0.07910819389210393</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.0181824152074943</v>
+      </c>
+      <c r="G19">
+        <v>-0.08578448659217243</v>
+      </c>
+      <c r="H19">
+        <v>-0.0475578700681171</v>
+      </c>
+      <c r="I19">
+        <v>0.0717145568639396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.01618353424180191</v>
+        <v>0.01168053801725023</v>
       </c>
       <c r="C20">
-        <v>0.01144347639810155</v>
+        <v>0.005482401787094989</v>
       </c>
       <c r="D20">
-        <v>-0.04378394595163075</v>
+        <v>0.0203134736769598</v>
       </c>
       <c r="E20">
-        <v>-0.03578384859278855</v>
+        <v>-0.001706946725878758</v>
       </c>
       <c r="F20">
-        <v>0.05812437920143005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01838905812154172</v>
+      </c>
+      <c r="G20">
+        <v>-0.05377199356778485</v>
+      </c>
+      <c r="H20">
+        <v>-0.05749219088643447</v>
+      </c>
+      <c r="I20">
+        <v>0.05362290974996988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.01486660990655417</v>
+        <v>0.02342967830975266</v>
       </c>
       <c r="C21">
-        <v>-0.006328017449519747</v>
+        <v>0.009457751655219615</v>
       </c>
       <c r="D21">
-        <v>-0.03906123549971222</v>
+        <v>0.01948546487857479</v>
       </c>
       <c r="E21">
-        <v>-0.01784075406096247</v>
+        <v>-0.009431423860420084</v>
       </c>
       <c r="F21">
-        <v>0.09541632817932179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.005548694386401506</v>
+      </c>
+      <c r="G21">
+        <v>-0.07294063738498759</v>
+      </c>
+      <c r="H21">
+        <v>-0.03705809653172894</v>
+      </c>
+      <c r="I21">
+        <v>0.05982602922317395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.03417932091715608</v>
+        <v>0.03028355520783722</v>
       </c>
       <c r="C24">
-        <v>0.005747237627500174</v>
+        <v>-0.00623647407930402</v>
       </c>
       <c r="D24">
-        <v>-0.0242582612433993</v>
+        <v>0.0283342594961406</v>
       </c>
       <c r="E24">
-        <v>-0.01551673464641674</v>
+        <v>0.002076347262468007</v>
       </c>
       <c r="F24">
-        <v>0.04066860695119905</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.01291627870690126</v>
+      </c>
+      <c r="G24">
+        <v>-0.03675736936414174</v>
+      </c>
+      <c r="H24">
+        <v>-0.004751620171216607</v>
+      </c>
+      <c r="I24">
+        <v>0.03349817597046024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.03876596502473179</v>
+        <v>0.03972438791178071</v>
       </c>
       <c r="C25">
-        <v>0.006548844933296151</v>
+        <v>-0.002402349773184008</v>
       </c>
       <c r="D25">
-        <v>-0.02786364494609108</v>
+        <v>0.03018985104551142</v>
       </c>
       <c r="E25">
-        <v>-0.02168113375809519</v>
+        <v>0.001961009211969757</v>
       </c>
       <c r="F25">
-        <v>0.05097618092819991</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01612372299657117</v>
+      </c>
+      <c r="G25">
+        <v>-0.04504377855774437</v>
+      </c>
+      <c r="H25">
+        <v>0.0003058006128244281</v>
+      </c>
+      <c r="I25">
+        <v>0.03508230185523448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.01660674765978193</v>
+        <v>0.0142900850674189</v>
       </c>
       <c r="C26">
-        <v>-0.004735850979267395</v>
+        <v>0.02019789868365052</v>
       </c>
       <c r="D26">
-        <v>-0.05272823675643742</v>
+        <v>0.02178226807579463</v>
       </c>
       <c r="E26">
-        <v>-0.004766991903673231</v>
+        <v>0.007103844859363453</v>
       </c>
       <c r="F26">
-        <v>0.05291984611840121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.002876858005392825</v>
+      </c>
+      <c r="G26">
+        <v>-0.05022947912648763</v>
+      </c>
+      <c r="H26">
+        <v>-0.04076719789023032</v>
+      </c>
+      <c r="I26">
+        <v>0.03765131236944423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1016829717031011</v>
+        <v>0.05422209258405074</v>
       </c>
       <c r="C27">
-        <v>0.04328881818364927</v>
+        <v>-0.01597630132330139</v>
       </c>
       <c r="D27">
-        <v>-0.03443714149402712</v>
+        <v>0.01498378513695177</v>
       </c>
       <c r="E27">
-        <v>-0.03674854697542038</v>
+        <v>0.001581604435687514</v>
       </c>
       <c r="F27">
-        <v>0.05852278842520772</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.02282999187157401</v>
+      </c>
+      <c r="G27">
+        <v>-0.04506790814456339</v>
+      </c>
+      <c r="H27">
+        <v>-0.03451415972690396</v>
+      </c>
+      <c r="I27">
+        <v>0.03411192008847272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.04982801701954136</v>
+        <v>0.08529362278164443</v>
       </c>
       <c r="C28">
-        <v>0.1007333402574153</v>
+        <v>0.007540217318679565</v>
       </c>
       <c r="D28">
-        <v>0.1798287185041668</v>
+        <v>-0.2487288884583049</v>
       </c>
       <c r="E28">
-        <v>0.1400846527466909</v>
+        <v>0.002570641207444952</v>
       </c>
       <c r="F28">
-        <v>0.04504836693578678</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.05715732832191516</v>
+      </c>
+      <c r="G28">
+        <v>-0.02275324012820012</v>
+      </c>
+      <c r="H28">
+        <v>-0.0494138993848314</v>
+      </c>
+      <c r="I28">
+        <v>0.04318568130466285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02357313649128466</v>
+        <v>0.02076881174926158</v>
       </c>
       <c r="C29">
-        <v>0.01272871096277741</v>
+        <v>0.0004928836354936323</v>
       </c>
       <c r="D29">
-        <v>-0.03936768819580971</v>
+        <v>0.0169213777892591</v>
       </c>
       <c r="E29">
-        <v>-0.03722188307901553</v>
+        <v>-0.006819801393222257</v>
       </c>
       <c r="F29">
-        <v>0.02706255060496047</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02955418444347324</v>
+      </c>
+      <c r="G29">
+        <v>-0.03616493301291454</v>
+      </c>
+      <c r="H29">
+        <v>-0.06633708038492948</v>
+      </c>
+      <c r="I29">
+        <v>0.01951085465115257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.09452432940228668</v>
+        <v>0.07633971860995253</v>
       </c>
       <c r="C30">
-        <v>0.05457644346588301</v>
+        <v>0.000884600542535831</v>
       </c>
       <c r="D30">
-        <v>-0.06779119219171548</v>
+        <v>0.04968256930752982</v>
       </c>
       <c r="E30">
-        <v>-0.02366078184195224</v>
+        <v>0.0471183276117108</v>
       </c>
       <c r="F30">
-        <v>0.09501869445208064</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.05331261590711747</v>
+      </c>
+      <c r="G30">
+        <v>-0.09825555587695106</v>
+      </c>
+      <c r="H30">
+        <v>-0.007772623111872075</v>
+      </c>
+      <c r="I30">
+        <v>0.01566161403539923</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.0606219065656308</v>
+        <v>0.05564845586394626</v>
       </c>
       <c r="C31">
-        <v>0.01887754793985876</v>
+        <v>-0.01215728609460248</v>
       </c>
       <c r="D31">
-        <v>-0.03662589352339515</v>
+        <v>0.01454236630144883</v>
       </c>
       <c r="E31">
-        <v>0.02492714859619785</v>
+        <v>0.01149637855793921</v>
       </c>
       <c r="F31">
-        <v>0.006872542765004122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01426598308171318</v>
+      </c>
+      <c r="G31">
+        <v>-0.01434877054141077</v>
+      </c>
+      <c r="H31">
+        <v>-0.06120121745576534</v>
+      </c>
+      <c r="I31">
+        <v>0.04822539845051148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.04970962483964365</v>
+        <v>0.02340330166410702</v>
       </c>
       <c r="C32">
-        <v>0.02073363748900101</v>
+        <v>-0.01637141808962173</v>
       </c>
       <c r="D32">
-        <v>-0.05045355422083841</v>
+        <v>0.03280078040540877</v>
       </c>
       <c r="E32">
-        <v>-0.04002849092177784</v>
+        <v>-0.01090804802987004</v>
       </c>
       <c r="F32">
-        <v>0.07056343618344341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.04454587341386967</v>
+      </c>
+      <c r="G32">
+        <v>-0.07806047985409241</v>
+      </c>
+      <c r="H32">
+        <v>-0.008242150001756442</v>
+      </c>
+      <c r="I32">
+        <v>0.05484254458916138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.05240815614886352</v>
+        <v>0.04322498549568637</v>
       </c>
       <c r="C33">
-        <v>-0.0003247478414988659</v>
+        <v>-0.00134616682802526</v>
       </c>
       <c r="D33">
-        <v>-0.07350528257396877</v>
+        <v>0.04380585902203205</v>
       </c>
       <c r="E33">
-        <v>-0.01894503796573021</v>
+        <v>0.02532653130624647</v>
       </c>
       <c r="F33">
-        <v>0.08933245896760632</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.006778298685133177</v>
+      </c>
+      <c r="G33">
+        <v>-0.07639850318862344</v>
+      </c>
+      <c r="H33">
+        <v>-0.05054276079992195</v>
+      </c>
+      <c r="I33">
+        <v>0.05764963461621551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.03817483073678193</v>
+        <v>0.03330658974252786</v>
       </c>
       <c r="C34">
-        <v>0.01353753738858587</v>
+        <v>-0.01979374087235021</v>
       </c>
       <c r="D34">
-        <v>-0.03169911569311736</v>
+        <v>0.03033776702762244</v>
       </c>
       <c r="E34">
-        <v>-0.0214982087927026</v>
+        <v>-0.002513176507363164</v>
       </c>
       <c r="F34">
-        <v>0.04247922882411441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02256678415588076</v>
+      </c>
+      <c r="G34">
+        <v>-0.03960071441454899</v>
+      </c>
+      <c r="H34">
+        <v>-0.004507586969718625</v>
+      </c>
+      <c r="I34">
+        <v>0.03394020988881209</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01602505337324657</v>
+        <v>0.01809073084199159</v>
       </c>
       <c r="C36">
-        <v>0.01305205691663771</v>
+        <v>0.006290567649946417</v>
       </c>
       <c r="D36">
-        <v>-0.009378259113432041</v>
+        <v>-0.001057303059581584</v>
       </c>
       <c r="E36">
-        <v>-0.007698054516120611</v>
+        <v>-0.001633147609824483</v>
       </c>
       <c r="F36">
-        <v>0.03320699028703503</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01003877060172304</v>
+      </c>
+      <c r="G36">
+        <v>-0.03313681009138975</v>
+      </c>
+      <c r="H36">
+        <v>-0.03772383903714926</v>
+      </c>
+      <c r="I36">
+        <v>0.0205927288074051</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.009713892853136357</v>
+        <v>0.01803512869168171</v>
       </c>
       <c r="C38">
-        <v>0.006475175371878837</v>
+        <v>-0.01401863330779823</v>
       </c>
       <c r="D38">
-        <v>0.01075657550935621</v>
+        <v>0.002059123239384366</v>
       </c>
       <c r="E38">
-        <v>-0.004485210495165028</v>
+        <v>-0.003338379886634592</v>
       </c>
       <c r="F38">
-        <v>0.03227591192467839</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.001925410187403089</v>
+      </c>
+      <c r="G38">
+        <v>-0.04236927007569043</v>
+      </c>
+      <c r="H38">
+        <v>-0.02536496815819883</v>
+      </c>
+      <c r="I38">
+        <v>0.03199555819343507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.05198850636420242</v>
+        <v>0.03917551638222995</v>
       </c>
       <c r="C39">
-        <v>0.01304901510514387</v>
+        <v>-0.008355248942087279</v>
       </c>
       <c r="D39">
-        <v>-0.04860751023312439</v>
+        <v>0.05403672998028815</v>
       </c>
       <c r="E39">
-        <v>-0.01139153830192898</v>
+        <v>0.009029334084296591</v>
       </c>
       <c r="F39">
-        <v>0.03761457031958527</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.02951658474871157</v>
+      </c>
+      <c r="G39">
+        <v>-0.05516478252248663</v>
+      </c>
+      <c r="H39">
+        <v>0.006312078055235086</v>
+      </c>
+      <c r="I39">
+        <v>0.03396987244505128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.0534610557406826</v>
+        <v>0.04493555339681136</v>
       </c>
       <c r="C40">
-        <v>0.03532574228354476</v>
+        <v>-0.002407027278452429</v>
       </c>
       <c r="D40">
-        <v>-0.08038851055860093</v>
+        <v>0.03749110919340119</v>
       </c>
       <c r="E40">
-        <v>0.0029105819434525</v>
+        <v>0.02742643522545433</v>
       </c>
       <c r="F40">
-        <v>0.08204244616839686</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03097004517564808</v>
+      </c>
+      <c r="G40">
+        <v>-0.07345122490322524</v>
+      </c>
+      <c r="H40">
+        <v>-0.03512136890056271</v>
+      </c>
+      <c r="I40">
+        <v>0.09497992307475303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01144042638643995</v>
+        <v>0.0003944271504571868</v>
       </c>
       <c r="C41">
-        <v>-0.00618247132124242</v>
+        <v>0.003045298761436931</v>
       </c>
       <c r="D41">
-        <v>-0.02424002371448467</v>
+        <v>0.001775099539250709</v>
       </c>
       <c r="E41">
-        <v>-0.01959678078438332</v>
+        <v>-0.0001062568173958241</v>
       </c>
       <c r="F41">
-        <v>0.001829220552514146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.003671346317224774</v>
+      </c>
+      <c r="G41">
+        <v>-0.00779615067927591</v>
+      </c>
+      <c r="H41">
+        <v>-0.0570012815090005</v>
+      </c>
+      <c r="I41">
+        <v>0.03618186821419542</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.3667799165958477</v>
+        <v>0.2489028454028807</v>
       </c>
       <c r="C42">
-        <v>-0.8668572919520953</v>
+        <v>0.07489505855801061</v>
       </c>
       <c r="D42">
-        <v>0.1167220985014742</v>
+        <v>0.3280141990085432</v>
       </c>
       <c r="E42">
-        <v>0.2574752139927746</v>
+        <v>0.05010575868305061</v>
       </c>
       <c r="F42">
-        <v>-0.04501393969866482</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8813029590818863</v>
+      </c>
+      <c r="G42">
+        <v>0.1388381585683088</v>
+      </c>
+      <c r="H42">
+        <v>0.01295712495498929</v>
+      </c>
+      <c r="I42">
+        <v>0.007000157614761486</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01152078089362689</v>
+        <v>-5.859439899738713e-05</v>
       </c>
       <c r="C43">
-        <v>-0.003284716663447844</v>
+        <v>0.006983821140469259</v>
       </c>
       <c r="D43">
-        <v>-0.02649496203359871</v>
+        <v>0.0007511334422999866</v>
       </c>
       <c r="E43">
-        <v>-0.01046489533983384</v>
+        <v>0.003380765771925206</v>
       </c>
       <c r="F43">
-        <v>0.02901972513952696</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.001218405292385375</v>
+      </c>
+      <c r="G43">
+        <v>-0.02067220352770147</v>
+      </c>
+      <c r="H43">
+        <v>-0.04983890261993096</v>
+      </c>
+      <c r="I43">
+        <v>0.02749064315616563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.02965780325282975</v>
+        <v>0.01521192734186675</v>
       </c>
       <c r="C44">
-        <v>0.001828902354698836</v>
+        <v>0.0003015284334328893</v>
       </c>
       <c r="D44">
-        <v>-0.05984493766865503</v>
+        <v>0.02711863386086305</v>
       </c>
       <c r="E44">
-        <v>-0.02481934702477463</v>
+        <v>-0.0003780169848339911</v>
       </c>
       <c r="F44">
-        <v>0.1465513346338783</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.004282697457557882</v>
+      </c>
+      <c r="G44">
+        <v>-0.116834218906467</v>
+      </c>
+      <c r="H44">
+        <v>-0.09420652342877242</v>
+      </c>
+      <c r="I44">
+        <v>0.07432942920953028</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.0250259567145553</v>
+        <v>0.02045891891556614</v>
       </c>
       <c r="C46">
-        <v>0.01061743412844325</v>
+        <v>0.003087222718274314</v>
       </c>
       <c r="D46">
-        <v>-0.05534926915166379</v>
+        <v>0.03070476477925333</v>
       </c>
       <c r="E46">
-        <v>-0.02725684937507531</v>
+        <v>0.006521706709395367</v>
       </c>
       <c r="F46">
-        <v>0.0236523353058663</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03403093361797716</v>
+      </c>
+      <c r="G46">
+        <v>-0.0494791899553178</v>
+      </c>
+      <c r="H46">
+        <v>-0.06635111795724011</v>
+      </c>
+      <c r="I46">
+        <v>0.02069348599178123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09244558970672018</v>
+        <v>0.08317970331213551</v>
       </c>
       <c r="C47">
-        <v>0.02911847447736208</v>
+        <v>-0.02718970162587315</v>
       </c>
       <c r="D47">
-        <v>-0.03568188642021349</v>
+        <v>0.0235648082816815</v>
       </c>
       <c r="E47">
-        <v>-0.01749134084657455</v>
+        <v>0.007448935170655425</v>
       </c>
       <c r="F47">
-        <v>-0.01699405447980976</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02545327449138808</v>
+      </c>
+      <c r="G47">
+        <v>0.01662100556874496</v>
+      </c>
+      <c r="H47">
+        <v>-0.07364713391943702</v>
+      </c>
+      <c r="I47">
+        <v>0.04559455390166137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01198310665004756</v>
+        <v>0.01797041645973966</v>
       </c>
       <c r="C48">
-        <v>0.008504062719358199</v>
+        <v>-0.004566856572740697</v>
       </c>
       <c r="D48">
-        <v>-0.0318411630818167</v>
+        <v>0.009333163163980359</v>
       </c>
       <c r="E48">
-        <v>-0.01483106635808146</v>
+        <v>0.001313198424995812</v>
       </c>
       <c r="F48">
-        <v>0.04518224255953127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01198305667260397</v>
+      </c>
+      <c r="G48">
+        <v>-0.03599802600123844</v>
+      </c>
+      <c r="H48">
+        <v>-0.0334640844971282</v>
+      </c>
+      <c r="I48">
+        <v>0.02216914248664881</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.08981877456283796</v>
+        <v>0.07887256881514225</v>
       </c>
       <c r="C50">
-        <v>0.008046994615507253</v>
+        <v>-0.02228580433747938</v>
       </c>
       <c r="D50">
-        <v>-0.04059935561977396</v>
+        <v>0.03812462331341013</v>
       </c>
       <c r="E50">
-        <v>-0.006124041382401271</v>
+        <v>-0.004823227491191798</v>
       </c>
       <c r="F50">
-        <v>-0.004089334792588622</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.01065604763892832</v>
+      </c>
+      <c r="G50">
+        <v>-0.01242364755851575</v>
+      </c>
+      <c r="H50">
+        <v>-0.05751295211314726</v>
+      </c>
+      <c r="I50">
+        <v>-0.01247982987961768</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.0463888746000246</v>
+        <v>0.02492070116623876</v>
       </c>
       <c r="C51">
-        <v>0.00108425514028093</v>
+        <v>0.001838659126752441</v>
       </c>
       <c r="D51">
-        <v>-0.02758435695631414</v>
+        <v>-0.007822820011053919</v>
       </c>
       <c r="E51">
-        <v>0.03900189789813182</v>
+        <v>0.01136872132918524</v>
       </c>
       <c r="F51">
-        <v>0.1021108366866415</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0147939117608193</v>
+      </c>
+      <c r="G51">
+        <v>-0.08941237517775719</v>
+      </c>
+      <c r="H51">
+        <v>-0.08164476300615724</v>
+      </c>
+      <c r="I51">
+        <v>0.07518254910729391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1168186830731609</v>
+        <v>0.1097177081046463</v>
       </c>
       <c r="C53">
-        <v>0.02964899755443109</v>
+        <v>-0.03695154679076974</v>
       </c>
       <c r="D53">
-        <v>-0.06994593469479189</v>
+        <v>0.05652693354633329</v>
       </c>
       <c r="E53">
-        <v>-0.02091675924190525</v>
+        <v>0.008942507007393439</v>
       </c>
       <c r="F53">
-        <v>-0.07614159345852549</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05267020548884646</v>
+      </c>
+      <c r="G53">
+        <v>0.05531371620023955</v>
+      </c>
+      <c r="H53">
+        <v>-0.02799245415833539</v>
+      </c>
+      <c r="I53">
+        <v>0.02836527546998815</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01983179144158331</v>
+        <v>0.02054688095314377</v>
       </c>
       <c r="C54">
-        <v>0.0233750035525433</v>
+        <v>-0.008761200037235338</v>
       </c>
       <c r="D54">
-        <v>-0.02518184455937083</v>
+        <v>-0.004337193737064155</v>
       </c>
       <c r="E54">
-        <v>-0.0201046616882104</v>
+        <v>-0.002645948789685888</v>
       </c>
       <c r="F54">
-        <v>0.04573444796600466</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02258239085958987</v>
+      </c>
+      <c r="G54">
+        <v>-0.04243131722427813</v>
+      </c>
+      <c r="H54">
+        <v>-0.07244675982854283</v>
+      </c>
+      <c r="I54">
+        <v>0.02646426083563377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1013224214887908</v>
+        <v>0.09237339661608529</v>
       </c>
       <c r="C55">
-        <v>0.02762163508432608</v>
+        <v>-0.03328573824876083</v>
       </c>
       <c r="D55">
-        <v>-0.01764988256610273</v>
+        <v>0.04766053828391414</v>
       </c>
       <c r="E55">
-        <v>-0.04502913815726058</v>
+        <v>-0.006536472330617413</v>
       </c>
       <c r="F55">
-        <v>-0.06173320668418298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04110316589431404</v>
+      </c>
+      <c r="G55">
+        <v>0.04554830692209447</v>
+      </c>
+      <c r="H55">
+        <v>-0.03738656468705846</v>
+      </c>
+      <c r="I55">
+        <v>-0.002500954862954234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1371031303885361</v>
+        <v>0.1441146588034941</v>
       </c>
       <c r="C56">
-        <v>0.06748309599429558</v>
+        <v>-0.05458136024668991</v>
       </c>
       <c r="D56">
-        <v>-0.04727578906170186</v>
+        <v>0.05288658554792845</v>
       </c>
       <c r="E56">
-        <v>-0.04976015930949364</v>
+        <v>0.003822347908047777</v>
       </c>
       <c r="F56">
-        <v>-0.134923361925401</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.07829933114272215</v>
+      </c>
+      <c r="G56">
+        <v>0.1009799807666635</v>
+      </c>
+      <c r="H56">
+        <v>0.004571938053809692</v>
+      </c>
+      <c r="I56">
+        <v>-0.002833703687462779</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.05866421419234411</v>
+        <v>0.05341286248289214</v>
       </c>
       <c r="C57">
-        <v>0.01979476783832303</v>
+        <v>0.007765516390803556</v>
       </c>
       <c r="D57">
-        <v>-0.04744284594898479</v>
+        <v>0.02355925235171586</v>
       </c>
       <c r="E57">
-        <v>0.009751620353715946</v>
+        <v>0.01956841074732895</v>
       </c>
       <c r="F57">
-        <v>0.07490965591151875</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.004805184686176521</v>
+      </c>
+      <c r="G57">
+        <v>-0.05841737531695686</v>
+      </c>
+      <c r="H57">
+        <v>-0.02953238044169417</v>
+      </c>
+      <c r="I57">
+        <v>0.04048728168704142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2213568674678406</v>
+        <v>0.1765693111951068</v>
       </c>
       <c r="C58">
-        <v>0.0510569136466975</v>
+        <v>-0.0452970154288976</v>
       </c>
       <c r="D58">
-        <v>-0.1334521615250055</v>
+        <v>0.08350087134997931</v>
       </c>
       <c r="E58">
-        <v>-0.01187854910359747</v>
+        <v>0.1164208096205679</v>
       </c>
       <c r="F58">
-        <v>0.1903492412751963</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.01793761750637561</v>
+      </c>
+      <c r="G58">
+        <v>-0.4184986985500521</v>
+      </c>
+      <c r="H58">
+        <v>-0.3428221876022126</v>
+      </c>
+      <c r="I58">
+        <v>-0.7101623976663254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.04987655267238069</v>
+        <v>0.0870059105192499</v>
       </c>
       <c r="C59">
-        <v>0.1172805448996086</v>
+        <v>0.003498301393856202</v>
       </c>
       <c r="D59">
-        <v>0.1235668191888641</v>
+        <v>-0.2177028380833623</v>
       </c>
       <c r="E59">
-        <v>0.08540818703307856</v>
+        <v>0.01968596802574769</v>
       </c>
       <c r="F59">
-        <v>0.03012159986927239</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01979226881159648</v>
+      </c>
+      <c r="G59">
+        <v>-0.04648066244597791</v>
+      </c>
+      <c r="H59">
+        <v>-0.02261167719129963</v>
+      </c>
+      <c r="I59">
+        <v>0.02634440512241291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1713544231513942</v>
+        <v>0.1889736971627083</v>
       </c>
       <c r="C60">
-        <v>0.08513475502559749</v>
+        <v>-0.02767978556732294</v>
       </c>
       <c r="D60">
-        <v>-0.01387685102514956</v>
+        <v>-0.0360565627171535</v>
       </c>
       <c r="E60">
-        <v>0.08549991697300541</v>
+        <v>0.06847309867278165</v>
       </c>
       <c r="F60">
-        <v>0.155684683901525</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.02479214477201423</v>
+      </c>
+      <c r="G60">
+        <v>-0.1985947090063679</v>
+      </c>
+      <c r="H60">
+        <v>0.3639710873562176</v>
+      </c>
+      <c r="I60">
+        <v>0.05962084227369634</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03212736383993692</v>
+        <v>0.03323944113987013</v>
       </c>
       <c r="C61">
-        <v>0.01012340977232494</v>
+        <v>-0.01049512279546148</v>
       </c>
       <c r="D61">
-        <v>-0.01949584658915932</v>
+        <v>0.03424661354148557</v>
       </c>
       <c r="E61">
-        <v>-0.01789596793054208</v>
+        <v>0.001849836931197921</v>
       </c>
       <c r="F61">
-        <v>0.03591911202582697</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02317287397819174</v>
+      </c>
+      <c r="G61">
+        <v>-0.04113768346912104</v>
+      </c>
+      <c r="H61">
+        <v>0.012412413195004</v>
+      </c>
+      <c r="I61">
+        <v>0.0221362588834935</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.02339553899282378</v>
+        <v>0.02155883215514367</v>
       </c>
       <c r="C63">
-        <v>0.02018866030314057</v>
+        <v>-0.0001491079360498815</v>
       </c>
       <c r="D63">
-        <v>-0.04849296039128189</v>
+        <v>0.02452480684829751</v>
       </c>
       <c r="E63">
-        <v>-0.02601410876117744</v>
+        <v>0.002829636931454556</v>
       </c>
       <c r="F63">
-        <v>0.03902975010694026</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02189707516939536</v>
+      </c>
+      <c r="G63">
+        <v>-0.03246152272306399</v>
+      </c>
+      <c r="H63">
+        <v>-0.0532235266650881</v>
+      </c>
+      <c r="I63">
+        <v>0.02266683884483585</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05059808706765796</v>
+        <v>0.04868966700465029</v>
       </c>
       <c r="C64">
-        <v>0.008726491323519546</v>
+        <v>-0.0124641525026824</v>
       </c>
       <c r="D64">
-        <v>-0.04536499862184231</v>
+        <v>0.04337493770258898</v>
       </c>
       <c r="E64">
-        <v>-0.06183056840616345</v>
+        <v>-0.006387039101226438</v>
       </c>
       <c r="F64">
-        <v>0.06028113554283134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.02533126894940266</v>
+      </c>
+      <c r="G64">
+        <v>-0.04059980750052081</v>
+      </c>
+      <c r="H64">
+        <v>-0.03432303304875258</v>
+      </c>
+      <c r="I64">
+        <v>0.07847935621111461</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.005871714545401324</v>
+        <v>0.03760414108730483</v>
       </c>
       <c r="C65">
-        <v>0.001368500726149266</v>
+        <v>0.003767951518227933</v>
       </c>
       <c r="D65">
-        <v>-0.0007496264933047025</v>
+        <v>0.02394556546564737</v>
       </c>
       <c r="E65">
-        <v>0.005366365864193484</v>
+        <v>-0.001306228455299485</v>
       </c>
       <c r="F65">
-        <v>-0.0001315414597903343</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.0225807345863045</v>
+      </c>
+      <c r="G65">
+        <v>-0.007516990221078367</v>
+      </c>
+      <c r="H65">
+        <v>0.04366269751156751</v>
+      </c>
+      <c r="I65">
+        <v>0.0007740380121720472</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.04913482534403028</v>
+        <v>0.04743857959834371</v>
       </c>
       <c r="C66">
-        <v>0.02615010642330629</v>
+        <v>-0.01197432462323497</v>
       </c>
       <c r="D66">
-        <v>-0.06016372487822149</v>
+        <v>0.06093992183744334</v>
       </c>
       <c r="E66">
-        <v>-0.03041671425684374</v>
+        <v>0.01701423721679784</v>
       </c>
       <c r="F66">
-        <v>0.08261034317474585</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.05499618343872522</v>
+      </c>
+      <c r="G66">
+        <v>-0.06632352843726376</v>
+      </c>
+      <c r="H66">
+        <v>0.01862388633659722</v>
+      </c>
+      <c r="I66">
+        <v>0.04780419415846605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02763999032268696</v>
+        <v>0.03642306828662216</v>
       </c>
       <c r="C67">
-        <v>0.01774246190558214</v>
+        <v>-0.01431086143637748</v>
       </c>
       <c r="D67">
-        <v>0.02320468894014905</v>
+        <v>-0.00973017292361647</v>
       </c>
       <c r="E67">
-        <v>0.01255746024329635</v>
+        <v>0.001222243639772547</v>
       </c>
       <c r="F67">
-        <v>0.03911314005699843</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.004956096556222049</v>
+      </c>
+      <c r="G67">
+        <v>-0.03592117158632809</v>
+      </c>
+      <c r="H67">
+        <v>-0.005810542120146667</v>
+      </c>
+      <c r="I67">
+        <v>0.04512717724319609</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.06226055023172706</v>
+        <v>0.09213078231669126</v>
       </c>
       <c r="C68">
-        <v>0.1111846895400646</v>
+        <v>0.02319779276390159</v>
       </c>
       <c r="D68">
-        <v>0.1833997633240404</v>
+        <v>-0.2395271684572812</v>
       </c>
       <c r="E68">
-        <v>0.1325082034188974</v>
+        <v>0.01294825374570569</v>
       </c>
       <c r="F68">
-        <v>-0.01651657173041715</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.04843011217815179</v>
+      </c>
+      <c r="G68">
+        <v>-0.001370461195313411</v>
+      </c>
+      <c r="H68">
+        <v>-0.04101054743028672</v>
+      </c>
+      <c r="I68">
+        <v>-0.04769915099242672</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07449167784217414</v>
+        <v>0.06778894456512427</v>
       </c>
       <c r="C69">
-        <v>0.03328717150626776</v>
+        <v>-0.02637534474587931</v>
       </c>
       <c r="D69">
-        <v>-0.02154175088919327</v>
+        <v>0.01594777868285053</v>
       </c>
       <c r="E69">
-        <v>0.004304237985369188</v>
+        <v>0.01041294615158473</v>
       </c>
       <c r="F69">
-        <v>-0.000776013884851901</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02404376288899182</v>
+      </c>
+      <c r="G69">
+        <v>-0.001001636256599868</v>
+      </c>
+      <c r="H69">
+        <v>-0.04885541202557785</v>
+      </c>
+      <c r="I69">
+        <v>0.04294714038420436</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.06067508470874491</v>
+        <v>0.08966063825230682</v>
       </c>
       <c r="C71">
-        <v>0.1311367866956144</v>
+        <v>0.01378988215828043</v>
       </c>
       <c r="D71">
-        <v>0.2250916073150928</v>
+        <v>-0.2590801325973348</v>
       </c>
       <c r="E71">
-        <v>0.2161212043737896</v>
+        <v>0.0185130811162223</v>
       </c>
       <c r="F71">
-        <v>0.04586490448936534</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06900167128580302</v>
+      </c>
+      <c r="G71">
+        <v>-0.02051709528154015</v>
+      </c>
+      <c r="H71">
+        <v>-0.01986208653950282</v>
+      </c>
+      <c r="I71">
+        <v>0.0009672043061297922</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1259403297665793</v>
+        <v>0.1267584296289651</v>
       </c>
       <c r="C72">
-        <v>0.0918716723189827</v>
+        <v>-0.05295005787504033</v>
       </c>
       <c r="D72">
-        <v>-0.05011809182940599</v>
+        <v>0.05176342160613175</v>
       </c>
       <c r="E72">
-        <v>-0.03212599678611848</v>
+        <v>0.02396311475703874</v>
       </c>
       <c r="F72">
-        <v>0.01384489132971226</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.09445407865057344</v>
+      </c>
+      <c r="G72">
+        <v>-0.1099001829541183</v>
+      </c>
+      <c r="H72">
+        <v>0.08679757275377431</v>
+      </c>
+      <c r="I72">
+        <v>-0.06189309476040936</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2509609557159095</v>
+        <v>0.2619809161145455</v>
       </c>
       <c r="C73">
-        <v>0.1256426897220862</v>
+        <v>-0.04069316196528572</v>
       </c>
       <c r="D73">
-        <v>0.03522016375180634</v>
+        <v>-0.03145388127554768</v>
       </c>
       <c r="E73">
-        <v>0.132125458885815</v>
+        <v>0.1028776196506606</v>
       </c>
       <c r="F73">
-        <v>0.2960691225684658</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.005007205416284704</v>
+      </c>
+      <c r="G73">
+        <v>-0.2712005614856025</v>
+      </c>
+      <c r="H73">
+        <v>0.5399855827734573</v>
+      </c>
+      <c r="I73">
+        <v>-0.005858742078971973</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1299394875151897</v>
+        <v>0.1331150111050354</v>
       </c>
       <c r="C74">
-        <v>0.03251890510891661</v>
+        <v>-0.04839694086917967</v>
       </c>
       <c r="D74">
-        <v>-0.0386025737980876</v>
+        <v>0.05377969897002131</v>
       </c>
       <c r="E74">
-        <v>-0.02303490589248455</v>
+        <v>0.0120734409557354</v>
       </c>
       <c r="F74">
-        <v>-0.1061626066323706</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.05303686387563373</v>
+      </c>
+      <c r="G74">
+        <v>0.08656887621218055</v>
+      </c>
+      <c r="H74">
+        <v>0.008981098246906757</v>
+      </c>
+      <c r="I74">
+        <v>0.04554204811183019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2208296936583407</v>
+        <v>0.2458239912207232</v>
       </c>
       <c r="C75">
-        <v>0.102332047689933</v>
+        <v>-0.09355791436895812</v>
       </c>
       <c r="D75">
-        <v>-0.08888040760730279</v>
+        <v>0.06848351164066709</v>
       </c>
       <c r="E75">
-        <v>-0.02479282176204021</v>
+        <v>0.03670831870133792</v>
       </c>
       <c r="F75">
-        <v>-0.1733925466442688</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1291142147541894</v>
+      </c>
+      <c r="G75">
+        <v>0.1657754971531351</v>
+      </c>
+      <c r="H75">
+        <v>-0.01113586690436245</v>
+      </c>
+      <c r="I75">
+        <v>0.01041026754113981</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2396243452690659</v>
+        <v>0.2385581001886994</v>
       </c>
       <c r="C76">
-        <v>0.115508443442755</v>
+        <v>-0.09433529770587333</v>
       </c>
       <c r="D76">
-        <v>-0.0315044954302984</v>
+        <v>0.06276834483291606</v>
       </c>
       <c r="E76">
-        <v>-0.07770531758558964</v>
+        <v>-0.007331040566929434</v>
       </c>
       <c r="F76">
-        <v>-0.1965141742411733</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1379313783481832</v>
+      </c>
+      <c r="G76">
+        <v>0.1869764710398319</v>
+      </c>
+      <c r="H76">
+        <v>-0.02436505108602128</v>
+      </c>
+      <c r="I76">
+        <v>-0.0392869030004781</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1557307300272787</v>
+        <v>0.1040948465458132</v>
       </c>
       <c r="C77">
-        <v>-0.02053078585357897</v>
+        <v>-0.01312421909825662</v>
       </c>
       <c r="D77">
-        <v>-0.07731685555604483</v>
+        <v>0.07995869944364335</v>
       </c>
       <c r="E77">
-        <v>-0.001225670183664558</v>
+        <v>0.01866741935118731</v>
       </c>
       <c r="F77">
-        <v>0.2118839541951841</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.03531862938060745</v>
+      </c>
+      <c r="G77">
+        <v>-0.1444623959857512</v>
+      </c>
+      <c r="H77">
+        <v>-0.187619853430039</v>
+      </c>
+      <c r="I77">
+        <v>0.05071909582978348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08197412494676486</v>
+        <v>0.05747183504722525</v>
       </c>
       <c r="C78">
-        <v>-0.007167984158172721</v>
+        <v>-0.01293777017931263</v>
       </c>
       <c r="D78">
-        <v>-0.07782987054943495</v>
+        <v>0.06465266594664286</v>
       </c>
       <c r="E78">
-        <v>-0.05264359590653326</v>
+        <v>0.003199797067552465</v>
       </c>
       <c r="F78">
-        <v>0.04749617203921037</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.03116090496363484</v>
+      </c>
+      <c r="G78">
+        <v>-0.07494128466874592</v>
+      </c>
+      <c r="H78">
+        <v>-0.02704950801005475</v>
+      </c>
+      <c r="I78">
+        <v>0.0388253768285169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1602980714308825</v>
+        <v>0.1774002278951904</v>
       </c>
       <c r="C80">
-        <v>-0.09421477602472762</v>
+        <v>-0.03577547028057822</v>
       </c>
       <c r="D80">
-        <v>0.5851959362282334</v>
+        <v>-0.009388633561075636</v>
       </c>
       <c r="E80">
-        <v>-0.7589483095476329</v>
+        <v>-0.9677578420364737</v>
       </c>
       <c r="F80">
-        <v>0.1363509791719123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.03641047422403487</v>
+      </c>
+      <c r="G80">
+        <v>-0.09694454835180205</v>
+      </c>
+      <c r="H80">
+        <v>0.02800839797974457</v>
+      </c>
+      <c r="I80">
+        <v>-0.02714458685729812</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1681503633435151</v>
+        <v>0.1792879334003034</v>
       </c>
       <c r="C81">
-        <v>0.08184936867930921</v>
+        <v>-0.06686493975730157</v>
       </c>
       <c r="D81">
-        <v>-0.05237368750217752</v>
+        <v>0.04904945569083257</v>
       </c>
       <c r="E81">
-        <v>-0.0319455000061089</v>
+        <v>0.0137031988899835</v>
       </c>
       <c r="F81">
-        <v>-0.1795413967303744</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.0987160908626028</v>
+      </c>
+      <c r="G81">
+        <v>0.1227276279440543</v>
+      </c>
+      <c r="H81">
+        <v>-0.02030258142270178</v>
+      </c>
+      <c r="I81">
+        <v>-0.03440051585570495</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.06018329896810237</v>
+        <v>0.04438789136401879</v>
       </c>
       <c r="C83">
-        <v>-0.03680235363745691</v>
+        <v>-0.008861710102837896</v>
       </c>
       <c r="D83">
-        <v>-0.06376972253556683</v>
+        <v>0.04015570637246741</v>
       </c>
       <c r="E83">
-        <v>-0.01014051571903321</v>
+        <v>0.0138161012891284</v>
       </c>
       <c r="F83">
-        <v>0.05653356792377665</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01441779709121847</v>
+      </c>
+      <c r="G83">
+        <v>-0.05498960730181715</v>
+      </c>
+      <c r="H83">
+        <v>-0.03167835881695545</v>
+      </c>
+      <c r="I83">
+        <v>0.04807953141463831</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2140379018580745</v>
+        <v>0.2299382569048678</v>
       </c>
       <c r="C85">
-        <v>0.06183072031074796</v>
+        <v>-0.07840361272841503</v>
       </c>
       <c r="D85">
-        <v>-0.07351245086880855</v>
+        <v>0.0999162238464097</v>
       </c>
       <c r="E85">
-        <v>-0.07497213175710007</v>
+        <v>0.02113587016630666</v>
       </c>
       <c r="F85">
-        <v>-0.2353458638195654</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1190704770367447</v>
+      </c>
+      <c r="G85">
+        <v>0.1867249214514921</v>
+      </c>
+      <c r="H85">
+        <v>-0.02759913263355969</v>
+      </c>
+      <c r="I85">
+        <v>-0.009962233466565603</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02259636450937845</v>
+        <v>0.0140369426291899</v>
       </c>
       <c r="C86">
-        <v>-0.007112956834304184</v>
+        <v>0.004824379210628192</v>
       </c>
       <c r="D86">
-        <v>-0.06201403735996337</v>
+        <v>0.03667448000298226</v>
       </c>
       <c r="E86">
-        <v>-0.02404249341940814</v>
+        <v>0.006986365564125325</v>
       </c>
       <c r="F86">
-        <v>0.08589490833015423</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.003838023232701111</v>
+      </c>
+      <c r="G86">
+        <v>-0.0971536994043833</v>
+      </c>
+      <c r="H86">
+        <v>-0.06342931022107652</v>
+      </c>
+      <c r="I86">
+        <v>0.05537173517435593</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01795589611382965</v>
+        <v>0.02543097884258145</v>
       </c>
       <c r="C87">
-        <v>0.03770755976630547</v>
+        <v>0.002305513956581648</v>
       </c>
       <c r="D87">
-        <v>0.03878038410703725</v>
+        <v>-0.01190000448170489</v>
       </c>
       <c r="E87">
-        <v>0.03439609406660891</v>
+        <v>0.0012737241059895</v>
       </c>
       <c r="F87">
-        <v>0.08795083879545798</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.007481130270223106</v>
+      </c>
+      <c r="G87">
+        <v>-0.1022451653636854</v>
+      </c>
+      <c r="H87">
+        <v>0.005787509106837467</v>
+      </c>
+      <c r="I87">
+        <v>0.03251014907939581</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.01221606869234424</v>
+        <v>0.03397605083407271</v>
       </c>
       <c r="C88">
-        <v>0.01084489305315353</v>
+        <v>-0.008157310608596792</v>
       </c>
       <c r="D88">
-        <v>0.003803752445002921</v>
+        <v>-0.004775134266905903</v>
       </c>
       <c r="E88">
-        <v>-0.02032012361903271</v>
+        <v>-0.00261336491466992</v>
       </c>
       <c r="F88">
-        <v>0.01698807373546804</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.0120128940994204</v>
+      </c>
+      <c r="G88">
+        <v>-0.0006166895014716483</v>
+      </c>
+      <c r="H88">
+        <v>-0.02138395977492937</v>
+      </c>
+      <c r="I88">
+        <v>0.06237346860765792</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.09132899578901257</v>
+        <v>0.149065950737943</v>
       </c>
       <c r="C89">
-        <v>0.127411726902009</v>
+        <v>0.02557333336097564</v>
       </c>
       <c r="D89">
-        <v>0.2420410227441998</v>
+        <v>-0.3815309262729615</v>
       </c>
       <c r="E89">
-        <v>0.2238298837023306</v>
+        <v>0.04689855247372105</v>
       </c>
       <c r="F89">
-        <v>0.01544184944888456</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.08296568029138464</v>
+      </c>
+      <c r="G89">
+        <v>0.003895099837924462</v>
+      </c>
+      <c r="H89">
+        <v>-0.09324353785184437</v>
+      </c>
+      <c r="I89">
+        <v>0.002069980091253497</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.08205482469821863</v>
+        <v>0.108498555115779</v>
       </c>
       <c r="C90">
-        <v>0.1292158577491093</v>
+        <v>0.02071210390544583</v>
       </c>
       <c r="D90">
-        <v>0.2528427439951544</v>
+        <v>-0.3212061178435154</v>
       </c>
       <c r="E90">
-        <v>0.1624681752723378</v>
+        <v>0.01994844929857108</v>
       </c>
       <c r="F90">
-        <v>0.006588595610421763</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.07694433195319476</v>
+      </c>
+      <c r="G90">
+        <v>0.03670829467949701</v>
+      </c>
+      <c r="H90">
+        <v>-0.06440235012568912</v>
+      </c>
+      <c r="I90">
+        <v>-0.0114657094910515</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2801230364949394</v>
+        <v>0.2718031686519852</v>
       </c>
       <c r="C91">
-        <v>0.07341207229449374</v>
+        <v>-0.1000962988724723</v>
       </c>
       <c r="D91">
-        <v>-0.09477296031211066</v>
+        <v>0.1091195838939993</v>
       </c>
       <c r="E91">
-        <v>-0.06871453009304891</v>
+        <v>0.02913924745207249</v>
       </c>
       <c r="F91">
-        <v>-0.2912825507366767</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1136565388152897</v>
+      </c>
+      <c r="G91">
+        <v>0.2440679474011027</v>
+      </c>
+      <c r="H91">
+        <v>-0.0468606509369319</v>
+      </c>
+      <c r="I91">
+        <v>-0.0407465939086123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.1269178213375559</v>
+        <v>0.1871695323080643</v>
       </c>
       <c r="C92">
-        <v>0.1057040242334264</v>
+        <v>-0.04549472316283339</v>
       </c>
       <c r="D92">
-        <v>0.2681040910104701</v>
+        <v>-0.3284863921917698</v>
       </c>
       <c r="E92">
-        <v>0.1546763618072703</v>
+        <v>0.00715965622048466</v>
       </c>
       <c r="F92">
-        <v>-0.01912081127419196</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.07165396165927909</v>
+      </c>
+      <c r="G92">
+        <v>0.09212478663439683</v>
+      </c>
+      <c r="H92">
+        <v>-0.1825724889811926</v>
+      </c>
+      <c r="I92">
+        <v>0.07234583375946822</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.07865452719951019</v>
+        <v>0.1359646713027657</v>
       </c>
       <c r="C93">
-        <v>0.1231093034065902</v>
+        <v>0.01716600458487846</v>
       </c>
       <c r="D93">
-        <v>0.3152967306038565</v>
+        <v>-0.3871352888902589</v>
       </c>
       <c r="E93">
-        <v>0.2239085450269987</v>
+        <v>0.03420201697282683</v>
       </c>
       <c r="F93">
-        <v>-0.01817663606472322</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.121865842222654</v>
+      </c>
+      <c r="G93">
+        <v>0.04828776984347223</v>
+      </c>
+      <c r="H93">
+        <v>-0.01073435323278874</v>
+      </c>
+      <c r="I93">
+        <v>-0.007635527376452502</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2589679683617214</v>
+        <v>0.2867574527608222</v>
       </c>
       <c r="C94">
-        <v>0.1088087902715997</v>
+        <v>-0.0861469802699404</v>
       </c>
       <c r="D94">
-        <v>-0.005902711282229266</v>
+        <v>0.03991916331871313</v>
       </c>
       <c r="E94">
-        <v>-0.02277997234964205</v>
+        <v>0.04559489296047706</v>
       </c>
       <c r="F94">
-        <v>-0.3595248354094462</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.140451178807271</v>
+      </c>
+      <c r="G94">
+        <v>0.2716705129813874</v>
+      </c>
+      <c r="H94">
+        <v>-0.03150552654986117</v>
+      </c>
+      <c r="I94">
+        <v>-0.1322546896580422</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1566793580787593</v>
+        <v>0.116586311778244</v>
       </c>
       <c r="C95">
-        <v>-0.01318727299479216</v>
+        <v>-0.05150273843242063</v>
       </c>
       <c r="D95">
-        <v>-0.1534616396415992</v>
+        <v>0.06481178615983918</v>
       </c>
       <c r="E95">
-        <v>-0.01781541669313444</v>
+        <v>0.088373610086688</v>
       </c>
       <c r="F95">
-        <v>-0.01267852562637201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.002084113655489474</v>
+      </c>
+      <c r="G95">
+        <v>-0.04754330600700364</v>
+      </c>
+      <c r="H95">
+        <v>-0.2025768724606938</v>
+      </c>
+      <c r="I95">
+        <v>0.4996071958084755</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1848712071685665</v>
+        <v>0.1932085334977177</v>
       </c>
       <c r="C98">
-        <v>0.06768078812151007</v>
+        <v>-0.06036377693692067</v>
       </c>
       <c r="D98">
-        <v>0.0178068425384042</v>
+        <v>-0.03668505216522825</v>
       </c>
       <c r="E98">
-        <v>0.1091072643117201</v>
+        <v>0.07029269734995297</v>
       </c>
       <c r="F98">
-        <v>0.1481264304536374</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.01329047342331042</v>
+      </c>
+      <c r="G98">
+        <v>-0.2035011377078986</v>
+      </c>
+      <c r="H98">
+        <v>0.3849382961587753</v>
+      </c>
+      <c r="I98">
+        <v>-0.009685275577225518</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3597,130 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001168802555203353</v>
+        <v>0.01328505592456296</v>
       </c>
       <c r="C101">
-        <v>0.01665781286199046</v>
+        <v>0.001890116083290344</v>
       </c>
       <c r="D101">
-        <v>-0.05859924298168863</v>
+        <v>0.02287642703085748</v>
       </c>
       <c r="E101">
-        <v>-0.05117772547061108</v>
+        <v>-0.001962210856575303</v>
       </c>
       <c r="F101">
-        <v>0.04959140817975572</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03568914257583706</v>
+      </c>
+      <c r="G101">
+        <v>-0.08069555043808781</v>
+      </c>
+      <c r="H101">
+        <v>-0.1212110651778254</v>
+      </c>
+      <c r="I101">
+        <v>-0.07889672318416902</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.09151894911628559</v>
+        <v>0.1164554074750575</v>
       </c>
       <c r="C102">
-        <v>0.0227995410557072</v>
+        <v>-0.03153490967938476</v>
       </c>
       <c r="D102">
-        <v>-0.04275306773916881</v>
+        <v>0.04873886503226356</v>
       </c>
       <c r="E102">
-        <v>-0.0556749047024287</v>
+        <v>0.003604786341864688</v>
       </c>
       <c r="F102">
-        <v>-0.1061901216963705</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06044934433431599</v>
+      </c>
+      <c r="G102">
+        <v>0.1145922248446827</v>
+      </c>
+      <c r="H102">
+        <v>-0.007616121286486251</v>
+      </c>
+      <c r="I102">
+        <v>-0.008880227617544248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02047311936921605</v>
+        <v>0.02602521970112085</v>
       </c>
       <c r="C103">
-        <v>0.009233847352292169</v>
+        <v>-0.008015775375050098</v>
       </c>
       <c r="D103">
-        <v>-0.003922968191210915</v>
+        <v>0.009930675097671031</v>
       </c>
       <c r="E103">
-        <v>-0.006554744777878768</v>
+        <v>-0.005841590197622814</v>
       </c>
       <c r="F103">
-        <v>-0.02514918918067269</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01439042483017728</v>
+      </c>
+      <c r="G103">
+        <v>0.0125664667521058</v>
+      </c>
+      <c r="H103">
+        <v>-0.01602783174398574</v>
+      </c>
+      <c r="I103">
+        <v>0.01151839482283384</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2093258777980103</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9561635966748634</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.05943498188120568</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.005801317142009433</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1617793905867812</v>
+      </c>
+      <c r="G104">
+        <v>0.04267900780854158</v>
+      </c>
+      <c r="H104">
+        <v>0.003176518976743617</v>
+      </c>
+      <c r="I104">
+        <v>-0.01229103721016</v>
       </c>
     </row>
   </sheetData>
